--- a/src/Input_Files/empire_names/francia_empires.xlsx
+++ b/src/Input_Files/empire_names/francia_empires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC9497A-D537-4CD6-80AB-DEF64090012F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB230F4-ADD6-4308-92A4-7CF7E0ABC9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="6420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empires" sheetId="1" r:id="rId1"/>
@@ -443,18 +443,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>

--- a/src/Input_Files/empire_names/francia_empires.xlsx
+++ b/src/Input_Files/empire_names/francia_empires.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E9AFDD-DC6E-4359-9A26-12A0163A4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0654C8FB-18BC-4F64-BF5E-CC6355AF85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empires" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RGB</t>
   </si>
@@ -37,9 +48,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>(16, 52, 166)</t>
-  </si>
-  <si>
     <t>Francia</t>
   </si>
   <si>
@@ -47,6 +55,18 @@
   </si>
   <si>
     <t>francia</t>
+  </si>
+  <si>
+    <t>(0, 31, 125)</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>paris</t>
   </si>
 </sst>
 </file>
@@ -440,22 +460,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,24 +488,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
